--- a/src/main/webapp/temp/bao_cao.xlsx
+++ b/src/main/webapp/temp/bao_cao.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20827"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0941D50E-2871-433F-86CD-2A1C3D330ACD}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A929B3C-89E7-4AA5-94F4-96F1A3BCFCEC}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="61">
   <si>
     <t>Họ tên Giảng viên</t>
   </si>
@@ -103,18 +103,6 @@
     <t>Tổng cộng</t>
   </si>
   <si>
-    <t>Trưởng phòng Đào tạo</t>
-  </si>
-  <si>
-    <t>Người lập biểu</t>
-  </si>
-  <si>
-    <t>Nguyễn Đức Tâm</t>
-  </si>
-  <si>
-    <t>Vương Thị Dung</t>
-  </si>
-  <si>
     <t>DANH SÁCH GIẢNG VIÊN VƯỢT GIỜ NĂM ${namHoc}</t>
   </si>
   <si>
@@ -221,9 +209,6 @@
   </si>
   <si>
     <t>${b.thucLinh}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bằng chữ: </t>
   </si>
   <si>
     <t>TT</t>
@@ -659,86 +644,86 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="3" fontId="11" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="12" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="12" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="11" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="12" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="12" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1040,8 +1025,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AB27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AA16" sqref="AA16"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A19" sqref="A19:W19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1072,148 +1057,148 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:28" ht="18.75">
-      <c r="A1" s="53" t="s">
-        <v>25</v>
-      </c>
-      <c r="B1" s="53"/>
-      <c r="C1" s="53"/>
-      <c r="D1" s="53"/>
-      <c r="E1" s="53"/>
-      <c r="F1" s="53"/>
-      <c r="G1" s="53"/>
-      <c r="H1" s="53"/>
-      <c r="I1" s="53"/>
-      <c r="J1" s="53"/>
-      <c r="K1" s="53"/>
-      <c r="L1" s="53"/>
-      <c r="M1" s="53"/>
-      <c r="N1" s="53"/>
-      <c r="O1" s="53"/>
-      <c r="P1" s="53"/>
-      <c r="Q1" s="53"/>
-      <c r="R1" s="53"/>
-      <c r="S1" s="53"/>
-      <c r="T1" s="53"/>
-      <c r="U1" s="53"/>
-      <c r="V1" s="53"/>
-      <c r="W1" s="53"/>
+      <c r="A1" s="41" t="s">
+        <v>21</v>
+      </c>
+      <c r="B1" s="41"/>
+      <c r="C1" s="41"/>
+      <c r="D1" s="41"/>
+      <c r="E1" s="41"/>
+      <c r="F1" s="41"/>
+      <c r="G1" s="41"/>
+      <c r="H1" s="41"/>
+      <c r="I1" s="41"/>
+      <c r="J1" s="41"/>
+      <c r="K1" s="41"/>
+      <c r="L1" s="41"/>
+      <c r="M1" s="41"/>
+      <c r="N1" s="41"/>
+      <c r="O1" s="41"/>
+      <c r="P1" s="41"/>
+      <c r="Q1" s="41"/>
+      <c r="R1" s="41"/>
+      <c r="S1" s="41"/>
+      <c r="T1" s="41"/>
+      <c r="U1" s="41"/>
+      <c r="V1" s="41"/>
+      <c r="W1" s="41"/>
     </row>
     <row r="2" spans="1:28" ht="18.75">
-      <c r="A2" s="54" t="s">
-        <v>26</v>
-      </c>
-      <c r="B2" s="54"/>
-      <c r="C2" s="54"/>
-      <c r="D2" s="54"/>
-      <c r="E2" s="54"/>
-      <c r="F2" s="54"/>
-      <c r="G2" s="54"/>
-      <c r="H2" s="54"/>
-      <c r="I2" s="54"/>
-      <c r="J2" s="54"/>
-      <c r="K2" s="54"/>
-      <c r="L2" s="54"/>
-      <c r="M2" s="54"/>
-      <c r="N2" s="54"/>
-      <c r="O2" s="54"/>
-      <c r="P2" s="54"/>
-      <c r="Q2" s="54"/>
-      <c r="R2" s="54"/>
-      <c r="S2" s="54"/>
-      <c r="T2" s="54"/>
-      <c r="U2" s="54"/>
-      <c r="V2" s="54"/>
-      <c r="W2" s="54"/>
+      <c r="A2" s="42" t="s">
+        <v>22</v>
+      </c>
+      <c r="B2" s="42"/>
+      <c r="C2" s="42"/>
+      <c r="D2" s="42"/>
+      <c r="E2" s="42"/>
+      <c r="F2" s="42"/>
+      <c r="G2" s="42"/>
+      <c r="H2" s="42"/>
+      <c r="I2" s="42"/>
+      <c r="J2" s="42"/>
+      <c r="K2" s="42"/>
+      <c r="L2" s="42"/>
+      <c r="M2" s="42"/>
+      <c r="N2" s="42"/>
+      <c r="O2" s="42"/>
+      <c r="P2" s="42"/>
+      <c r="Q2" s="42"/>
+      <c r="R2" s="42"/>
+      <c r="S2" s="42"/>
+      <c r="T2" s="42"/>
+      <c r="U2" s="42"/>
+      <c r="V2" s="42"/>
+      <c r="W2" s="42"/>
     </row>
     <row r="5" spans="1:28" ht="15.75">
-      <c r="A5" s="38" t="s">
-        <v>62</v>
-      </c>
-      <c r="B5" s="38" t="s">
+      <c r="A5" s="43" t="s">
+        <v>57</v>
+      </c>
+      <c r="B5" s="43" t="s">
         <v>0</v>
       </c>
-      <c r="C5" s="37" t="s">
+      <c r="C5" s="44" t="s">
         <v>1</v>
       </c>
-      <c r="D5" s="55" t="s">
+      <c r="D5" s="45" t="s">
         <v>2</v>
       </c>
-      <c r="E5" s="37" t="s">
+      <c r="E5" s="44" t="s">
         <v>3</v>
       </c>
-      <c r="F5" s="37" t="s">
+      <c r="F5" s="44" t="s">
         <v>4</v>
       </c>
-      <c r="G5" s="38" t="s">
+      <c r="G5" s="43" t="s">
         <v>5</v>
       </c>
-      <c r="H5" s="38"/>
-      <c r="I5" s="38"/>
-      <c r="J5" s="38"/>
-      <c r="K5" s="38"/>
-      <c r="L5" s="38"/>
-      <c r="M5" s="38"/>
-      <c r="N5" s="37" t="s">
+      <c r="H5" s="43"/>
+      <c r="I5" s="43"/>
+      <c r="J5" s="43"/>
+      <c r="K5" s="43"/>
+      <c r="L5" s="43"/>
+      <c r="M5" s="43"/>
+      <c r="N5" s="44" t="s">
         <v>6</v>
       </c>
-      <c r="O5" s="37"/>
-      <c r="P5" s="37"/>
-      <c r="Q5" s="41" t="s">
+      <c r="O5" s="44"/>
+      <c r="P5" s="44"/>
+      <c r="Q5" s="48" t="s">
         <v>7</v>
       </c>
-      <c r="R5" s="42" t="s">
+      <c r="R5" s="51" t="s">
         <v>8</v>
       </c>
-      <c r="S5" s="43"/>
-      <c r="T5" s="43"/>
-      <c r="U5" s="43"/>
-      <c r="V5" s="44"/>
-      <c r="W5" s="41" t="s">
+      <c r="S5" s="52"/>
+      <c r="T5" s="52"/>
+      <c r="U5" s="52"/>
+      <c r="V5" s="53"/>
+      <c r="W5" s="48" t="s">
         <v>9</v>
       </c>
-      <c r="X5" s="37" t="s">
+      <c r="X5" s="44" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="6" spans="1:28" ht="15.75">
-      <c r="A6" s="38"/>
-      <c r="B6" s="38"/>
-      <c r="C6" s="38"/>
-      <c r="D6" s="56"/>
-      <c r="E6" s="38"/>
-      <c r="F6" s="38"/>
-      <c r="G6" s="38" t="s">
+      <c r="A6" s="43"/>
+      <c r="B6" s="43"/>
+      <c r="C6" s="43"/>
+      <c r="D6" s="46"/>
+      <c r="E6" s="43"/>
+      <c r="F6" s="43"/>
+      <c r="G6" s="43" t="s">
         <v>11</v>
       </c>
-      <c r="H6" s="38"/>
-      <c r="I6" s="38" t="s">
+      <c r="H6" s="43"/>
+      <c r="I6" s="43" t="s">
         <v>12</v>
       </c>
-      <c r="J6" s="38"/>
-      <c r="K6" s="38" t="s">
+      <c r="J6" s="43"/>
+      <c r="K6" s="43" t="s">
         <v>13</v>
       </c>
-      <c r="L6" s="38"/>
-      <c r="M6" s="38"/>
-      <c r="N6" s="37"/>
-      <c r="O6" s="37"/>
-      <c r="P6" s="37"/>
-      <c r="Q6" s="41"/>
-      <c r="R6" s="45"/>
-      <c r="S6" s="46"/>
-      <c r="T6" s="46"/>
-      <c r="U6" s="46"/>
-      <c r="V6" s="47"/>
-      <c r="W6" s="41"/>
-      <c r="X6" s="37"/>
+      <c r="L6" s="43"/>
+      <c r="M6" s="43"/>
+      <c r="N6" s="44"/>
+      <c r="O6" s="44"/>
+      <c r="P6" s="44"/>
+      <c r="Q6" s="48"/>
+      <c r="R6" s="54"/>
+      <c r="S6" s="55"/>
+      <c r="T6" s="55"/>
+      <c r="U6" s="55"/>
+      <c r="V6" s="56"/>
+      <c r="W6" s="48"/>
+      <c r="X6" s="44"/>
     </row>
     <row r="7" spans="1:28" ht="28.5">
-      <c r="A7" s="38"/>
-      <c r="B7" s="38"/>
-      <c r="C7" s="38"/>
-      <c r="D7" s="57"/>
-      <c r="E7" s="38"/>
-      <c r="F7" s="38"/>
+      <c r="A7" s="43"/>
+      <c r="B7" s="43"/>
+      <c r="C7" s="43"/>
+      <c r="D7" s="47"/>
+      <c r="E7" s="43"/>
+      <c r="F7" s="43"/>
       <c r="G7" s="1" t="s">
         <v>14</v>
       </c>
@@ -1244,7 +1229,7 @@
       <c r="P7" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="Q7" s="41"/>
+      <c r="Q7" s="48"/>
       <c r="R7" s="3" t="s">
         <v>14</v>
       </c>
@@ -1260,14 +1245,14 @@
       <c r="V7" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="W7" s="41"/>
+      <c r="W7" s="48"/>
       <c r="X7" s="4" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="8" spans="1:28" s="8" customFormat="1" ht="22.5" customHeight="1">
       <c r="A8" s="5" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="B8" s="6"/>
       <c r="C8" s="6"/>
@@ -1298,7 +1283,7 @@
     </row>
     <row r="9" spans="1:28" s="14" customFormat="1" ht="22.5" customHeight="1">
       <c r="A9" s="31" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="B9" s="11"/>
       <c r="C9" s="11"/>
@@ -1318,14 +1303,14 @@
       <c r="Q9" s="12"/>
       <c r="R9" s="12"/>
       <c r="S9" s="12"/>
-      <c r="T9" s="58" t="s">
-        <v>55</v>
-      </c>
-      <c r="U9" s="58" t="s">
-        <v>56</v>
-      </c>
-      <c r="V9" s="58" t="s">
-        <v>57</v>
+      <c r="T9" s="36" t="s">
+        <v>51</v>
+      </c>
+      <c r="U9" s="36" t="s">
+        <v>52</v>
+      </c>
+      <c r="V9" s="36" t="s">
+        <v>53</v>
       </c>
       <c r="W9" s="11"/>
       <c r="X9" s="13" t="b">
@@ -1337,7 +1322,7 @@
     </row>
     <row r="10" spans="1:28" s="14" customFormat="1" ht="22.5" customHeight="1">
       <c r="A10" s="31" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="B10" s="11"/>
       <c r="C10" s="11"/>
@@ -1370,7 +1355,7 @@
     </row>
     <row r="11" spans="1:28" s="14" customFormat="1" ht="22.5" customHeight="1">
       <c r="A11" s="31" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="B11" s="11"/>
       <c r="C11" s="11"/>
@@ -1390,14 +1375,14 @@
       <c r="Q11" s="12"/>
       <c r="R11" s="12"/>
       <c r="S11" s="12"/>
-      <c r="T11" s="58" t="s">
-        <v>58</v>
-      </c>
-      <c r="U11" s="58" t="s">
-        <v>59</v>
-      </c>
-      <c r="V11" s="58" t="s">
-        <v>60</v>
+      <c r="T11" s="36" t="s">
+        <v>54</v>
+      </c>
+      <c r="U11" s="36" t="s">
+        <v>55</v>
+      </c>
+      <c r="V11" s="36" t="s">
+        <v>56</v>
       </c>
       <c r="W11" s="11"/>
       <c r="X11" s="33"/>
@@ -1406,7 +1391,7 @@
     </row>
     <row r="12" spans="1:28" s="14" customFormat="1" ht="22.5" customHeight="1">
       <c r="A12" s="11" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="B12" s="11"/>
       <c r="C12" s="11"/>
@@ -1436,70 +1421,70 @@
     </row>
     <row r="13" spans="1:28" s="14" customFormat="1" ht="22.5" customHeight="1">
       <c r="A13" s="35" t="s">
+        <v>26</v>
+      </c>
+      <c r="B13" s="35" t="s">
+        <v>28</v>
+      </c>
+      <c r="C13" s="37" t="s">
+        <v>29</v>
+      </c>
+      <c r="D13" s="37" t="s">
         <v>30</v>
       </c>
-      <c r="B13" s="35" t="s">
+      <c r="E13" s="37" t="s">
+        <v>31</v>
+      </c>
+      <c r="F13" s="37" t="s">
         <v>32</v>
       </c>
-      <c r="C13" s="59" t="s">
+      <c r="G13" s="37" t="s">
         <v>33</v>
       </c>
-      <c r="D13" s="59" t="s">
+      <c r="H13" s="37" t="s">
         <v>34</v>
       </c>
-      <c r="E13" s="59" t="s">
+      <c r="I13" s="37" t="s">
         <v>35</v>
       </c>
-      <c r="F13" s="59" t="s">
+      <c r="J13" s="37" t="s">
         <v>36</v>
       </c>
-      <c r="G13" s="59" t="s">
+      <c r="K13" s="37" t="s">
         <v>37</v>
       </c>
-      <c r="H13" s="59" t="s">
+      <c r="L13" s="37" t="s">
         <v>38</v>
       </c>
-      <c r="I13" s="59" t="s">
+      <c r="M13" s="37" t="s">
         <v>39</v>
       </c>
-      <c r="J13" s="59" t="s">
+      <c r="N13" s="38" t="s">
         <v>40</v>
       </c>
-      <c r="K13" s="59" t="s">
+      <c r="O13" s="39" t="s">
         <v>41</v>
       </c>
-      <c r="L13" s="59" t="s">
+      <c r="P13" s="39" t="s">
         <v>42</v>
       </c>
-      <c r="M13" s="59" t="s">
+      <c r="Q13" s="39" t="s">
         <v>43</v>
       </c>
-      <c r="N13" s="60" t="s">
+      <c r="R13" s="39" t="s">
         <v>44</v>
       </c>
-      <c r="O13" s="61" t="s">
+      <c r="S13" s="39" t="s">
         <v>45</v>
       </c>
-      <c r="P13" s="61" t="s">
+      <c r="T13" s="39" t="s">
         <v>46</v>
       </c>
-      <c r="Q13" s="61" t="s">
+      <c r="U13" s="39" t="s">
         <v>47</v>
       </c>
-      <c r="R13" s="61" t="s">
+      <c r="V13" s="39" t="s">
         <v>48</v>
-      </c>
-      <c r="S13" s="61" t="s">
-        <v>49</v>
-      </c>
-      <c r="T13" s="61" t="s">
-        <v>50</v>
-      </c>
-      <c r="U13" s="61" t="s">
-        <v>51</v>
-      </c>
-      <c r="V13" s="61" t="s">
-        <v>52</v>
       </c>
       <c r="W13" s="35"/>
       <c r="X13" s="33"/>
@@ -1508,7 +1493,7 @@
     </row>
     <row r="14" spans="1:28" s="14" customFormat="1" ht="22.5" customHeight="1">
       <c r="A14" s="20" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="B14" s="11"/>
       <c r="C14" s="11"/>
@@ -1538,7 +1523,7 @@
     </row>
     <row r="15" spans="1:28" s="8" customFormat="1" ht="22.5" customHeight="1">
       <c r="A15" s="34" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="B15" s="6"/>
       <c r="C15" s="17"/>
@@ -1572,7 +1557,7 @@
     </row>
     <row r="16" spans="1:28" s="14" customFormat="1" ht="22.5" customHeight="1">
       <c r="A16" s="34" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="B16" s="11"/>
       <c r="C16" s="20"/>
@@ -1635,165 +1620,149 @@
       <c r="AA17" s="15"/>
     </row>
     <row r="18" spans="1:27" s="24" customFormat="1" ht="22.5" customHeight="1">
-      <c r="A18" s="48" t="s">
+      <c r="A18" s="57" t="s">
         <v>20</v>
       </c>
-      <c r="B18" s="49"/>
-      <c r="C18" s="49"/>
-      <c r="D18" s="49"/>
-      <c r="E18" s="49"/>
-      <c r="F18" s="49"/>
-      <c r="G18" s="49"/>
-      <c r="H18" s="49"/>
-      <c r="I18" s="49"/>
-      <c r="J18" s="49"/>
-      <c r="K18" s="49"/>
-      <c r="L18" s="49"/>
-      <c r="M18" s="49"/>
-      <c r="N18" s="49"/>
-      <c r="O18" s="49"/>
-      <c r="P18" s="49"/>
-      <c r="Q18" s="50"/>
+      <c r="B18" s="58"/>
+      <c r="C18" s="58"/>
+      <c r="D18" s="58"/>
+      <c r="E18" s="58"/>
+      <c r="F18" s="58"/>
+      <c r="G18" s="58"/>
+      <c r="H18" s="58"/>
+      <c r="I18" s="58"/>
+      <c r="J18" s="58"/>
+      <c r="K18" s="58"/>
+      <c r="L18" s="58"/>
+      <c r="M18" s="58"/>
+      <c r="N18" s="58"/>
+      <c r="O18" s="58"/>
+      <c r="P18" s="58"/>
+      <c r="Q18" s="59"/>
       <c r="R18" s="22"/>
       <c r="S18" s="22"/>
-      <c r="T18" s="62" t="s">
-        <v>63</v>
-      </c>
-      <c r="U18" s="62" t="s">
-        <v>64</v>
-      </c>
-      <c r="V18" s="62" t="s">
-        <v>65</v>
+      <c r="T18" s="40" t="s">
+        <v>58</v>
+      </c>
+      <c r="U18" s="40" t="s">
+        <v>59</v>
+      </c>
+      <c r="V18" s="40" t="s">
+        <v>60</v>
       </c>
       <c r="W18" s="23"/>
       <c r="X18" s="23"/>
     </row>
     <row r="19" spans="1:27">
-      <c r="A19" s="51" t="s">
-        <v>61</v>
-      </c>
-      <c r="B19" s="51"/>
-      <c r="C19" s="51"/>
-      <c r="D19" s="51"/>
-      <c r="E19" s="51"/>
-      <c r="F19" s="51"/>
-      <c r="G19" s="51"/>
-      <c r="H19" s="51"/>
-      <c r="I19" s="51"/>
-      <c r="J19" s="51"/>
-      <c r="K19" s="51"/>
-      <c r="L19" s="51"/>
-      <c r="M19" s="51"/>
-      <c r="N19" s="51"/>
-      <c r="O19" s="51"/>
-      <c r="P19" s="51"/>
-      <c r="Q19" s="51"/>
-      <c r="R19" s="51"/>
-      <c r="S19" s="51"/>
-      <c r="T19" s="51"/>
-      <c r="U19" s="51"/>
-      <c r="V19" s="51"/>
-      <c r="W19" s="51"/>
+      <c r="A19" s="60"/>
+      <c r="B19" s="60"/>
+      <c r="C19" s="60"/>
+      <c r="D19" s="60"/>
+      <c r="E19" s="60"/>
+      <c r="F19" s="60"/>
+      <c r="G19" s="60"/>
+      <c r="H19" s="60"/>
+      <c r="I19" s="60"/>
+      <c r="J19" s="60"/>
+      <c r="K19" s="60"/>
+      <c r="L19" s="60"/>
+      <c r="M19" s="60"/>
+      <c r="N19" s="60"/>
+      <c r="O19" s="60"/>
+      <c r="P19" s="60"/>
+      <c r="Q19" s="60"/>
+      <c r="R19" s="60"/>
+      <c r="S19" s="60"/>
+      <c r="T19" s="60"/>
+      <c r="U19" s="60"/>
+      <c r="V19" s="60"/>
+      <c r="W19" s="60"/>
     </row>
     <row r="20" spans="1:27" ht="15.75">
-      <c r="B20" s="52" t="s">
-        <v>21</v>
-      </c>
-      <c r="C20" s="52"/>
-      <c r="D20" s="52"/>
-      <c r="E20" s="52"/>
+      <c r="B20" s="61"/>
+      <c r="C20" s="61"/>
+      <c r="D20" s="61"/>
+      <c r="E20" s="61"/>
       <c r="F20" s="25"/>
       <c r="G20" s="25"/>
-      <c r="H20" s="40"/>
-      <c r="I20" s="40"/>
-      <c r="J20" s="40"/>
-      <c r="K20" s="40"/>
-      <c r="L20" s="40"/>
-      <c r="M20" s="40"/>
-      <c r="N20" s="40"/>
+      <c r="H20" s="50"/>
+      <c r="I20" s="50"/>
+      <c r="J20" s="50"/>
+      <c r="K20" s="50"/>
+      <c r="L20" s="50"/>
+      <c r="M20" s="50"/>
+      <c r="N20" s="50"/>
       <c r="O20" s="25"/>
       <c r="P20" s="25"/>
       <c r="Q20" s="26"/>
-      <c r="R20" s="40" t="s">
-        <v>22</v>
-      </c>
-      <c r="S20" s="40"/>
-      <c r="T20" s="40"/>
+      <c r="R20" s="50"/>
+      <c r="S20" s="50"/>
+      <c r="T20" s="50"/>
       <c r="U20" s="27"/>
       <c r="V20" s="27"/>
       <c r="W20" s="27"/>
     </row>
     <row r="21" spans="1:27" ht="15.75">
-      <c r="B21" s="39"/>
-      <c r="C21" s="39"/>
+      <c r="B21" s="49"/>
+      <c r="C21" s="49"/>
       <c r="D21" s="28"/>
       <c r="E21" s="29"/>
       <c r="F21" s="29"/>
       <c r="G21" s="29"/>
-      <c r="H21" s="40"/>
-      <c r="I21" s="40"/>
-      <c r="J21" s="40"/>
-      <c r="K21" s="40"/>
-      <c r="L21" s="40"/>
-      <c r="M21" s="40"/>
-      <c r="N21" s="40"/>
+      <c r="H21" s="50"/>
+      <c r="I21" s="50"/>
+      <c r="J21" s="50"/>
+      <c r="K21" s="50"/>
+      <c r="L21" s="50"/>
+      <c r="M21" s="50"/>
+      <c r="N21" s="50"/>
       <c r="O21" s="29"/>
       <c r="P21" s="29"/>
-      <c r="R21" s="39"/>
-      <c r="S21" s="39"/>
-      <c r="T21" s="39"/>
+      <c r="R21" s="49"/>
+      <c r="S21" s="49"/>
+      <c r="T21" s="49"/>
       <c r="U21" s="28"/>
       <c r="V21" s="28"/>
       <c r="W21" s="28"/>
     </row>
     <row r="26" spans="1:27">
-      <c r="B26" s="36"/>
-      <c r="C26" s="36"/>
-      <c r="D26" s="36"/>
-      <c r="E26" s="36"/>
-      <c r="H26" s="36"/>
-      <c r="I26" s="36"/>
-      <c r="J26" s="36"/>
-      <c r="K26" s="36"/>
-      <c r="L26" s="36"/>
-      <c r="M26" s="36"/>
-      <c r="N26" s="36"/>
+      <c r="B26" s="62"/>
+      <c r="C26" s="62"/>
+      <c r="D26" s="62"/>
+      <c r="E26" s="62"/>
+      <c r="H26" s="62"/>
+      <c r="I26" s="62"/>
+      <c r="J26" s="62"/>
+      <c r="K26" s="62"/>
+      <c r="L26" s="62"/>
+      <c r="M26" s="62"/>
+      <c r="N26" s="62"/>
     </row>
     <row r="27" spans="1:27">
-      <c r="B27" s="36" t="s">
-        <v>23</v>
-      </c>
-      <c r="C27" s="36"/>
-      <c r="D27" s="36"/>
-      <c r="E27" s="36"/>
-      <c r="H27" s="36"/>
-      <c r="I27" s="36"/>
-      <c r="J27" s="36"/>
-      <c r="K27" s="36"/>
-      <c r="L27" s="36"/>
-      <c r="M27" s="36"/>
-      <c r="N27" s="36"/>
-      <c r="R27" s="36" t="s">
-        <v>24</v>
-      </c>
-      <c r="S27" s="36"/>
-      <c r="T27" s="36"/>
+      <c r="B27" s="62"/>
+      <c r="C27" s="62"/>
+      <c r="D27" s="62"/>
+      <c r="E27" s="62"/>
+      <c r="H27" s="62"/>
+      <c r="I27" s="62"/>
+      <c r="J27" s="62"/>
+      <c r="K27" s="62"/>
+      <c r="L27" s="62"/>
+      <c r="M27" s="62"/>
+      <c r="N27" s="62"/>
+      <c r="R27" s="62"/>
+      <c r="S27" s="62"/>
+      <c r="T27" s="62"/>
       <c r="U27" s="30"/>
       <c r="V27" s="30"/>
     </row>
   </sheetData>
   <mergeCells count="30">
-    <mergeCell ref="A1:W1"/>
-    <mergeCell ref="A2:W2"/>
-    <mergeCell ref="A5:A7"/>
-    <mergeCell ref="B5:B7"/>
-    <mergeCell ref="C5:C7"/>
-    <mergeCell ref="D5:D7"/>
-    <mergeCell ref="E5:E7"/>
-    <mergeCell ref="F5:F7"/>
-    <mergeCell ref="G5:M5"/>
-    <mergeCell ref="N5:P6"/>
-    <mergeCell ref="W5:W7"/>
+    <mergeCell ref="B26:E26"/>
+    <mergeCell ref="H26:N26"/>
+    <mergeCell ref="B27:E27"/>
+    <mergeCell ref="H27:N27"/>
+    <mergeCell ref="R27:T27"/>
     <mergeCell ref="X5:X6"/>
     <mergeCell ref="G6:H6"/>
     <mergeCell ref="I6:J6"/>
@@ -1808,11 +1777,17 @@
     <mergeCell ref="B20:E20"/>
     <mergeCell ref="H20:N20"/>
     <mergeCell ref="R20:T20"/>
-    <mergeCell ref="B26:E26"/>
-    <mergeCell ref="H26:N26"/>
-    <mergeCell ref="B27:E27"/>
-    <mergeCell ref="H27:N27"/>
-    <mergeCell ref="R27:T27"/>
+    <mergeCell ref="A1:W1"/>
+    <mergeCell ref="A2:W2"/>
+    <mergeCell ref="A5:A7"/>
+    <mergeCell ref="B5:B7"/>
+    <mergeCell ref="C5:C7"/>
+    <mergeCell ref="D5:D7"/>
+    <mergeCell ref="E5:E7"/>
+    <mergeCell ref="F5:F7"/>
+    <mergeCell ref="G5:M5"/>
+    <mergeCell ref="N5:P6"/>
+    <mergeCell ref="W5:W7"/>
   </mergeCells>
   <pageMargins left="0.2" right="0.2" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="80" orientation="landscape" r:id="rId1"/>
